--- a/Opgaver/Risikoanalyse/Risikoanalyse.xlsx
+++ b/Opgaver/Risikoanalyse/Risikoanalyse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caspe\Desktop\Projekt1\Risikoanalyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caspe\Desktop\Projekt1\Projekt-1sem\Opgaver\Risikoanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CCF782-04B1-4C95-82BE-FE2D2D6EB364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EDD01D-5938-4B19-8828-8C84A4312F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{26AE0A54-8CAD-43C4-9B53-29EC6406D105}"/>
   </bookViews>
@@ -599,35 +599,65 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -635,152 +665,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1753,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281A5AE5-13B0-427C-86AC-A024AFFB3606}">
   <dimension ref="B2:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1841,7 +1841,7 @@
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="5"/>
@@ -1860,11 +1860,11 @@
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
     </row>
     <row r="5" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
@@ -1977,7 +1977,7 @@
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2065,576 +2065,589 @@
     </row>
     <row r="17" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O18" s="62" t="s">
+      <c r="O18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="71" t="s">
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="30"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="24"/>
     </row>
     <row r="19" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O19" s="65"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="33">
+      <c r="O19" s="16"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="25">
         <v>1</v>
       </c>
-      <c r="S19" s="34"/>
-      <c r="T19" s="33">
+      <c r="S19" s="26"/>
+      <c r="T19" s="25">
         <v>2</v>
       </c>
-      <c r="U19" s="34"/>
-      <c r="V19" s="33">
+      <c r="U19" s="26"/>
+      <c r="V19" s="25">
         <v>3</v>
       </c>
-      <c r="W19" s="34"/>
-      <c r="X19" s="33">
+      <c r="W19" s="26"/>
+      <c r="X19" s="25">
         <v>4</v>
       </c>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="33">
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="25">
         <v>5</v>
       </c>
-      <c r="AA19" s="60"/>
+      <c r="AA19" s="29"/>
     </row>
     <row r="20" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O20" s="68"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="61"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="30"/>
     </row>
     <row r="21" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O21" s="59" t="s">
+      <c r="O21" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P21" s="25">
         <v>5</v>
       </c>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="37">
+      <c r="Q21" s="26"/>
+      <c r="R21" s="34">
         <v>5</v>
       </c>
-      <c r="S21" s="38"/>
-      <c r="T21" s="43">
+      <c r="S21" s="35"/>
+      <c r="T21" s="38">
         <v>10</v>
       </c>
-      <c r="U21" s="44"/>
-      <c r="V21" s="47">
+      <c r="U21" s="39"/>
+      <c r="V21" s="42">
         <v>15</v>
       </c>
-      <c r="W21" s="57"/>
-      <c r="X21" s="47">
+      <c r="W21" s="43"/>
+      <c r="X21" s="42">
         <v>20</v>
       </c>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="47">
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="42">
         <v>25</v>
       </c>
-      <c r="AA21" s="48"/>
+      <c r="AA21" s="46"/>
     </row>
     <row r="22" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O22" s="22"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="50"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="47"/>
     </row>
     <row r="23" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O23" s="22"/>
-      <c r="P23" s="33">
+      <c r="O23" s="32"/>
+      <c r="P23" s="25">
         <v>4</v>
       </c>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="37">
+      <c r="Q23" s="26"/>
+      <c r="R23" s="34">
         <v>4</v>
       </c>
-      <c r="S23" s="38"/>
-      <c r="T23" s="43">
+      <c r="S23" s="35"/>
+      <c r="T23" s="38">
         <v>8</v>
       </c>
-      <c r="U23" s="44"/>
-      <c r="V23" s="43">
+      <c r="U23" s="39"/>
+      <c r="V23" s="38">
         <v>12</v>
       </c>
-      <c r="W23" s="44"/>
-      <c r="X23" s="47">
+      <c r="W23" s="39"/>
+      <c r="X23" s="42">
         <v>16</v>
       </c>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="47">
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="42">
         <v>20</v>
       </c>
-      <c r="AA23" s="48"/>
+      <c r="AA23" s="46"/>
     </row>
     <row r="24" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O24" s="22"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="50"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="47"/>
     </row>
     <row r="25" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O25" s="22"/>
-      <c r="P25" s="33">
+      <c r="O25" s="32"/>
+      <c r="P25" s="25">
         <v>3</v>
       </c>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="37">
+      <c r="Q25" s="26"/>
+      <c r="R25" s="34">
         <v>3</v>
       </c>
-      <c r="S25" s="38"/>
-      <c r="T25" s="43">
+      <c r="S25" s="35"/>
+      <c r="T25" s="38">
         <v>6</v>
       </c>
-      <c r="U25" s="44"/>
-      <c r="V25" s="43">
+      <c r="U25" s="39"/>
+      <c r="V25" s="38">
         <v>9</v>
       </c>
-      <c r="W25" s="44"/>
-      <c r="X25" s="43">
+      <c r="W25" s="39"/>
+      <c r="X25" s="38">
         <v>12</v>
       </c>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="47">
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="42">
         <v>15</v>
       </c>
-      <c r="AA25" s="48"/>
+      <c r="AA25" s="46"/>
     </row>
     <row r="26" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O26" s="22"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="50"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="47"/>
     </row>
     <row r="27" spans="15:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O27" s="22"/>
-      <c r="P27" s="33">
+      <c r="O27" s="32"/>
+      <c r="P27" s="25">
         <v>2</v>
       </c>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="37">
+      <c r="Q27" s="26"/>
+      <c r="R27" s="34">
         <v>2</v>
       </c>
-      <c r="S27" s="38"/>
-      <c r="T27" s="37">
+      <c r="S27" s="35"/>
+      <c r="T27" s="34">
         <v>4</v>
       </c>
-      <c r="U27" s="38"/>
-      <c r="V27" s="43">
+      <c r="U27" s="35"/>
+      <c r="V27" s="38">
         <v>6</v>
       </c>
-      <c r="W27" s="44"/>
-      <c r="X27" s="43">
+      <c r="W27" s="39"/>
+      <c r="X27" s="38">
         <v>8</v>
       </c>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="43">
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="38">
         <v>10</v>
       </c>
-      <c r="AA27" s="55"/>
+      <c r="AA27" s="51"/>
     </row>
     <row r="28" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O28" s="22"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="46"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="56"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="52"/>
     </row>
     <row r="29" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O29" s="22"/>
-      <c r="P29" s="33">
+      <c r="O29" s="32"/>
+      <c r="P29" s="25">
         <v>1</v>
       </c>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="37">
+      <c r="Q29" s="26"/>
+      <c r="R29" s="34">
         <v>1</v>
       </c>
-      <c r="S29" s="38"/>
-      <c r="T29" s="37">
+      <c r="S29" s="35"/>
+      <c r="T29" s="34">
         <v>2</v>
       </c>
-      <c r="U29" s="38"/>
-      <c r="V29" s="37">
+      <c r="U29" s="35"/>
+      <c r="V29" s="34">
         <v>3</v>
       </c>
-      <c r="W29" s="38"/>
-      <c r="X29" s="37">
+      <c r="W29" s="35"/>
+      <c r="X29" s="34">
         <v>4</v>
       </c>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="37">
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="34">
         <v>5</v>
       </c>
-      <c r="AA29" s="41"/>
+      <c r="AA29" s="48"/>
     </row>
     <row r="30" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O30" s="23"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="42"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="50"/>
     </row>
     <row r="31" spans="15:27" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O35" s="25" t="s">
+      <c r="O35" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="29" t="s">
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="30"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="24"/>
     </row>
     <row r="36" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O36" s="27"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="31">
+      <c r="O36" s="58"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="60">
         <v>1</v>
       </c>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12">
+      <c r="S36" s="61"/>
+      <c r="T36" s="61">
         <v>2</v>
       </c>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12">
+      <c r="U36" s="61"/>
+      <c r="V36" s="61">
         <v>3</v>
       </c>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12">
+      <c r="W36" s="61"/>
+      <c r="X36" s="61">
         <v>4</v>
       </c>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12">
+      <c r="Y36" s="61"/>
+      <c r="Z36" s="61">
         <v>5</v>
       </c>
-      <c r="AA36" s="32"/>
+      <c r="AA36" s="62"/>
     </row>
     <row r="37" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O37" s="27"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="32"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="61"/>
+      <c r="Y37" s="61"/>
+      <c r="Z37" s="61"/>
+      <c r="AA37" s="62"/>
     </row>
     <row r="38" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O38" s="22" t="s">
+      <c r="O38" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="P38" s="24">
+      <c r="P38" s="63">
         <v>5</v>
       </c>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="14">
+      <c r="Q38" s="63"/>
+      <c r="R38" s="64">
         <v>5</v>
       </c>
-      <c r="S38" s="14"/>
-      <c r="T38" s="18">
+      <c r="S38" s="64"/>
+      <c r="T38" s="65">
         <v>10</v>
       </c>
-      <c r="U38" s="18"/>
-      <c r="V38" s="19">
+      <c r="U38" s="65"/>
+      <c r="V38" s="66">
         <v>15</v>
       </c>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19">
+      <c r="W38" s="66"/>
+      <c r="X38" s="66">
         <v>20</v>
       </c>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19">
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66">
         <v>25</v>
       </c>
-      <c r="AA38" s="20"/>
+      <c r="AA38" s="67"/>
     </row>
     <row r="39" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O39" s="22"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="20"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="65"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="67"/>
     </row>
     <row r="40" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O40" s="22"/>
-      <c r="P40" s="12">
+      <c r="O40" s="32"/>
+      <c r="P40" s="61">
         <v>4</v>
       </c>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="14">
+      <c r="Q40" s="61"/>
+      <c r="R40" s="64">
         <v>4</v>
       </c>
-      <c r="S40" s="14"/>
-      <c r="T40" s="18">
+      <c r="S40" s="64"/>
+      <c r="T40" s="65">
         <v>8</v>
       </c>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18">
+      <c r="U40" s="65"/>
+      <c r="V40" s="65">
         <v>12</v>
       </c>
-      <c r="W40" s="18"/>
-      <c r="X40" s="19">
+      <c r="W40" s="65"/>
+      <c r="X40" s="66">
         <v>16</v>
       </c>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19">
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66">
         <v>20</v>
       </c>
-      <c r="AA40" s="20"/>
+      <c r="AA40" s="67"/>
     </row>
     <row r="41" spans="15:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O41" s="22"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="20"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="67"/>
     </row>
     <row r="42" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O42" s="22"/>
-      <c r="P42" s="12">
+      <c r="O42" s="32"/>
+      <c r="P42" s="61">
         <v>3</v>
       </c>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="14">
+      <c r="Q42" s="61"/>
+      <c r="R42" s="64">
         <v>3</v>
       </c>
-      <c r="S42" s="14"/>
-      <c r="T42" s="18">
+      <c r="S42" s="64"/>
+      <c r="T42" s="65">
         <v>6</v>
       </c>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18">
+      <c r="U42" s="65"/>
+      <c r="V42" s="65">
         <v>9</v>
       </c>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18">
+      <c r="W42" s="65"/>
+      <c r="X42" s="65">
         <v>12</v>
       </c>
-      <c r="Y42" s="18"/>
-      <c r="Z42" s="19">
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="66">
         <v>15</v>
       </c>
-      <c r="AA42" s="20"/>
+      <c r="AA42" s="67"/>
     </row>
     <row r="43" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O43" s="22"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
-      <c r="X43" s="18"/>
-      <c r="Y43" s="18"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="20"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="65"/>
+      <c r="W43" s="65"/>
+      <c r="X43" s="65"/>
+      <c r="Y43" s="65"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="67"/>
     </row>
     <row r="44" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O44" s="22"/>
-      <c r="P44" s="12">
+      <c r="O44" s="32"/>
+      <c r="P44" s="61">
         <v>2</v>
       </c>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="14">
+      <c r="Q44" s="61"/>
+      <c r="R44" s="64">
         <v>2</v>
       </c>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14">
+      <c r="S44" s="64"/>
+      <c r="T44" s="64">
         <v>4</v>
       </c>
-      <c r="U44" s="14"/>
-      <c r="V44" s="18">
+      <c r="U44" s="64"/>
+      <c r="V44" s="65">
         <v>6</v>
       </c>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18">
+      <c r="W44" s="65"/>
+      <c r="X44" s="65">
         <v>8</v>
       </c>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="18">
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="65">
         <v>10</v>
       </c>
-      <c r="AA44" s="21"/>
+      <c r="AA44" s="71"/>
     </row>
     <row r="45" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O45" s="22"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="18"/>
-      <c r="AA45" s="21"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="64"/>
+      <c r="U45" s="64"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="71"/>
     </row>
     <row r="46" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O46" s="22"/>
-      <c r="P46" s="12">
+      <c r="O46" s="32"/>
+      <c r="P46" s="61">
         <v>1</v>
       </c>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="14">
+      <c r="Q46" s="61"/>
+      <c r="R46" s="64">
         <v>1</v>
       </c>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14">
+      <c r="S46" s="64"/>
+      <c r="T46" s="64">
         <v>2</v>
       </c>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14">
+      <c r="U46" s="64"/>
+      <c r="V46" s="64">
         <v>3</v>
       </c>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14">
+      <c r="W46" s="64"/>
+      <c r="X46" s="64">
         <v>4</v>
       </c>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="14">
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="64">
         <v>5</v>
       </c>
-      <c r="AA46" s="16"/>
+      <c r="AA46" s="68"/>
     </row>
     <row r="47" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O47" s="23"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="17"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="69"/>
+      <c r="S47" s="69"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="69"/>
+      <c r="V47" s="69"/>
+      <c r="W47" s="69"/>
+      <c r="X47" s="69"/>
+      <c r="Y47" s="69"/>
+      <c r="Z47" s="69"/>
+      <c r="AA47" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="O18:Q20"/>
-    <mergeCell ref="R18:AA18"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="R19:S20"/>
-    <mergeCell ref="T19:U20"/>
-    <mergeCell ref="V19:W20"/>
-    <mergeCell ref="X19:Y20"/>
-    <mergeCell ref="Z19:AA20"/>
-    <mergeCell ref="O21:O30"/>
-    <mergeCell ref="P21:Q22"/>
-    <mergeCell ref="R21:S22"/>
-    <mergeCell ref="T21:U22"/>
-    <mergeCell ref="V21:W22"/>
-    <mergeCell ref="P25:Q26"/>
-    <mergeCell ref="R25:S26"/>
-    <mergeCell ref="T25:U26"/>
-    <mergeCell ref="V25:W26"/>
-    <mergeCell ref="Z21:AA22"/>
-    <mergeCell ref="P23:Q24"/>
-    <mergeCell ref="R23:S24"/>
-    <mergeCell ref="T23:U24"/>
-    <mergeCell ref="V23:W24"/>
-    <mergeCell ref="X23:Y24"/>
-    <mergeCell ref="Z23:AA24"/>
-    <mergeCell ref="X21:Y22"/>
+    <mergeCell ref="Z46:AA47"/>
+    <mergeCell ref="X42:Y43"/>
+    <mergeCell ref="Z42:AA43"/>
+    <mergeCell ref="P44:Q45"/>
+    <mergeCell ref="R44:S45"/>
+    <mergeCell ref="T44:U45"/>
+    <mergeCell ref="V44:W45"/>
+    <mergeCell ref="X44:Y45"/>
+    <mergeCell ref="Z44:AA45"/>
+    <mergeCell ref="P46:Q47"/>
+    <mergeCell ref="R46:S47"/>
+    <mergeCell ref="T46:U47"/>
+    <mergeCell ref="V46:W47"/>
+    <mergeCell ref="X46:Y47"/>
+    <mergeCell ref="Z38:AA39"/>
+    <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="R40:S41"/>
+    <mergeCell ref="T40:U41"/>
+    <mergeCell ref="V40:W41"/>
+    <mergeCell ref="X40:Y41"/>
+    <mergeCell ref="Z40:AA41"/>
+    <mergeCell ref="X38:Y39"/>
+    <mergeCell ref="O38:O47"/>
+    <mergeCell ref="P38:Q39"/>
+    <mergeCell ref="R38:S39"/>
+    <mergeCell ref="T38:U39"/>
+    <mergeCell ref="V38:W39"/>
+    <mergeCell ref="P42:Q43"/>
+    <mergeCell ref="R42:S43"/>
+    <mergeCell ref="T42:U43"/>
+    <mergeCell ref="V42:W43"/>
+    <mergeCell ref="O35:Q37"/>
+    <mergeCell ref="R35:AA35"/>
+    <mergeCell ref="R36:S37"/>
+    <mergeCell ref="T36:U37"/>
+    <mergeCell ref="V36:W37"/>
+    <mergeCell ref="X36:Y37"/>
+    <mergeCell ref="Z36:AA37"/>
     <mergeCell ref="Z29:AA30"/>
     <mergeCell ref="X25:Y26"/>
     <mergeCell ref="Z25:AA26"/>
@@ -2649,44 +2662,31 @@
     <mergeCell ref="T29:U30"/>
     <mergeCell ref="V29:W30"/>
     <mergeCell ref="X29:Y30"/>
-    <mergeCell ref="O35:Q37"/>
-    <mergeCell ref="R35:AA35"/>
-    <mergeCell ref="R36:S37"/>
-    <mergeCell ref="T36:U37"/>
-    <mergeCell ref="V36:W37"/>
-    <mergeCell ref="X36:Y37"/>
-    <mergeCell ref="Z36:AA37"/>
-    <mergeCell ref="O38:O47"/>
-    <mergeCell ref="P38:Q39"/>
-    <mergeCell ref="R38:S39"/>
-    <mergeCell ref="T38:U39"/>
-    <mergeCell ref="V38:W39"/>
-    <mergeCell ref="P42:Q43"/>
-    <mergeCell ref="R42:S43"/>
-    <mergeCell ref="T42:U43"/>
-    <mergeCell ref="V42:W43"/>
-    <mergeCell ref="Z38:AA39"/>
-    <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="R40:S41"/>
-    <mergeCell ref="T40:U41"/>
-    <mergeCell ref="V40:W41"/>
-    <mergeCell ref="X40:Y41"/>
-    <mergeCell ref="Z40:AA41"/>
-    <mergeCell ref="X38:Y39"/>
-    <mergeCell ref="Z46:AA47"/>
-    <mergeCell ref="X42:Y43"/>
-    <mergeCell ref="Z42:AA43"/>
-    <mergeCell ref="P44:Q45"/>
-    <mergeCell ref="R44:S45"/>
-    <mergeCell ref="T44:U45"/>
-    <mergeCell ref="V44:W45"/>
-    <mergeCell ref="X44:Y45"/>
-    <mergeCell ref="Z44:AA45"/>
-    <mergeCell ref="P46:Q47"/>
-    <mergeCell ref="R46:S47"/>
-    <mergeCell ref="T46:U47"/>
-    <mergeCell ref="V46:W47"/>
-    <mergeCell ref="X46:Y47"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="P23:Q24"/>
+    <mergeCell ref="R23:S24"/>
+    <mergeCell ref="T23:U24"/>
+    <mergeCell ref="V23:W24"/>
+    <mergeCell ref="X23:Y24"/>
+    <mergeCell ref="Z23:AA24"/>
+    <mergeCell ref="X21:Y22"/>
+    <mergeCell ref="O21:O30"/>
+    <mergeCell ref="P21:Q22"/>
+    <mergeCell ref="R21:S22"/>
+    <mergeCell ref="T21:U22"/>
+    <mergeCell ref="V21:W22"/>
+    <mergeCell ref="P25:Q26"/>
+    <mergeCell ref="R25:S26"/>
+    <mergeCell ref="T25:U26"/>
+    <mergeCell ref="V25:W26"/>
+    <mergeCell ref="O18:Q20"/>
+    <mergeCell ref="R18:AA18"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="R19:S20"/>
+    <mergeCell ref="T19:U20"/>
+    <mergeCell ref="V19:W20"/>
+    <mergeCell ref="X19:Y20"/>
+    <mergeCell ref="Z19:AA20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Opgaver/Risikoanalyse/Risikoanalyse.xlsx
+++ b/Opgaver/Risikoanalyse/Risikoanalyse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caspe\Desktop\Projekt1\Projekt-1sem\Opgaver\Risikoanalyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caspe\Desktop\Projekt-test\Risikoanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EDD01D-5938-4B19-8828-8C84A4312F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E151C0-9D4E-45FB-B267-5229BC55223E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{26AE0A54-8CAD-43C4-9B53-29EC6406D105}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26AE0A54-8CAD-43C4-9B53-29EC6406D105}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,29 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
-  <si>
-    <t>Risiko-id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Dato</t>
   </si>
   <si>
-    <t>Risikoårsag</t>
-  </si>
-  <si>
-    <t>Risikohændelse</t>
-  </si>
-  <si>
-    <t>Risikokonsekvens</t>
-  </si>
-  <si>
     <t>Sandsynlighed</t>
   </si>
   <si>
-    <t>Konsekvensen</t>
-  </si>
-  <si>
     <t>Risikoværdi</t>
   </si>
   <si>
@@ -68,9 +53,6 @@
     <t>Re-estimering</t>
   </si>
   <si>
-    <t>Ansvarlig</t>
-  </si>
-  <si>
     <t>Konsekvenser</t>
   </si>
   <si>
@@ -80,53 +62,107 @@
     <t>Efter</t>
   </si>
   <si>
-    <t>Erfaringsfejl</t>
-  </si>
-  <si>
-    <t>Fejl i kode</t>
-  </si>
-  <si>
-    <t>Fejl i udregningen</t>
-  </si>
-  <si>
-    <t>Sygdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kan lede til at lave opgaven forkert, en konflikt eller </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misforståelse </t>
-  </si>
-  <si>
-    <t>Misforståelse mellem projektdeltagerne (og styregruppen)</t>
-  </si>
-  <si>
-    <t>Alle projektdeltagerne</t>
-  </si>
-  <si>
-    <t>Vi skal tale om tingene, og være sikre på at både "afsender" og "modtager", er enige om budskabet</t>
-  </si>
-  <si>
-    <t>Vores beregner som der skal lave udregningen er forkert.</t>
-  </si>
-  <si>
-    <t>Den laver de forkerte udregninger, hvilket kan give kunderne en forkert pris.</t>
-  </si>
-  <si>
-    <t>Projektdeltager er syg.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opgaver eller andet, bliver ikke lavet tid tiden </t>
-  </si>
-  <si>
-    <t>Vi overser noget, gør opgaven mere besværlig, eller</t>
+    <t>Betydning af handling</t>
+  </si>
+  <si>
+    <t>Dårlig/mangelfuld kommunikation</t>
+  </si>
+  <si>
+    <t>Der opstår kinflikter imellem projektdeltagerne.</t>
+  </si>
+  <si>
+    <t>Sikre at vi hele tiden kommunikere om opgaver, aftaler og mål. Vi skal nå til enighed, eller måske alle gå på kompromis.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Vi sikre både minimere sandsynligheden ved at kommunikere, men også konsekvensen ved at have et klart fælles mål.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misforståelse af matrialet fra Nexttech </t>
+  </si>
+  <si>
+    <t>Sikre at vi har mulighed for at ændre I formlen, og den er godkendt inden overgang til drift.</t>
+  </si>
+  <si>
+    <t>Vi menimere sandsynligheden ved at den laver de forkerte beregninger, men hvis den gør, er konsekvensen stadig stor.</t>
+  </si>
+  <si>
+    <t>Giver de forkerte priser på produkteter, og sælger med tab.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Årsag</t>
+  </si>
+  <si>
+    <t>Hændelse</t>
+  </si>
+  <si>
+    <t>Konsekvens</t>
+  </si>
+  <si>
+    <t>Sandsynlighed værdi</t>
+  </si>
+  <si>
+    <t>Konsekvens værdi</t>
+  </si>
+  <si>
+    <t>Vi har forskellige forståelser for de aftaler og mål, som vi er blevet enige om.</t>
+  </si>
+  <si>
+    <t>Manglende erfaring</t>
+  </si>
+  <si>
+    <t>Vi kan ikke kode den visuelle interfrace som vi havde planlagt</t>
+  </si>
+  <si>
+    <t>Vi skal til at designe et nyt grafisk interface.</t>
+  </si>
+  <si>
+    <t>Lave en skitse over hvordan vores andet design skal være.</t>
+  </si>
+  <si>
+    <t>Ved at have en backup, minimere vi konsekvensen ved at ikke kunne kode det første. Vi kan nemlig sikre os at vi stadig overholder grundpræncipper.</t>
+  </si>
+  <si>
+    <t>Vores formel for pris af print, laver de forkerte beregninger.</t>
+  </si>
+  <si>
+    <t>Merging af koden fejler</t>
+  </si>
+  <si>
+    <t>Koden skal skrives om, eller noget bliver slettet</t>
+  </si>
+  <si>
+    <t>Undersøg og test hvordan man gør, og sikre at vi har en backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vi minimere sandsynligheden ved hændelsen, fordi vi undersøger og tester inden. </t>
+  </si>
+  <si>
+    <t>Personlige problemer</t>
+  </si>
+  <si>
+    <t>En af os er fraværende</t>
+  </si>
+  <si>
+    <t>Opgaver bliver ikke lavet til tiden, og vi kommer bagud</t>
+  </si>
+  <si>
+    <t>God kommunikation om hvilket opgaver som der ikke bliver nået, og andre kan hjælpe</t>
+  </si>
+  <si>
+    <t>Vi minimere konsekvensen ved at hjælpe til, og sikre opgaverne bliver lavet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -584,23 +620,26 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -803,23 +842,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>51955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Ellipse 1">
+        <xdr:cNvPr id="8" name="Ellipse 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A739DD4-BE05-3DA2-F134-5F0840D01EA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CB1795-3682-4AB5-9466-CA3614E9DEB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -827,8 +866,323 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20859750" y="5067300"/>
+          <a:off x="36783818" y="23933728"/>
+          <a:ext cx="342900" cy="298986"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>259772</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>602672</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Ellipse 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5612BE4E-F4C4-4F23-9521-EB523F0C36C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38065363" y="23899091"/>
           <a:ext cx="342900" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>516082</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>156730</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Ellipse 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B25E941-0A79-4F12-8B24-65224AF7C2C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40403318" y="23933728"/>
+          <a:ext cx="342900" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>258782</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>41068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>601682</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145843</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Ellipse 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866777CA-4F4D-4CF9-BECC-8BCC603FE199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39276646" y="23541841"/>
+          <a:ext cx="342900" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>223157</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>566057</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Ellipse 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D735E8EC-0832-4302-9A92-66C1B447C68B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36210339" y="23905771"/>
+          <a:ext cx="342900" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>459180</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>125805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Ellipse 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E7A08F-92A7-4B11-B748-9DD08DEDB16E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36161601" y="27571783"/>
+          <a:ext cx="342900" cy="298986"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -868,21 +1222,21 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>156729</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Ellipse 2">
+        <xdr:cNvPr id="20" name="Ellipse 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9200274-2B19-4DE8-A34D-AEE309D46187}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E31831-4D7F-4804-8205-81757EA4BA53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,8 +1244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22860000" y="4238625"/>
-          <a:ext cx="342900" cy="304800"/>
+          <a:off x="37996091" y="27587863"/>
+          <a:ext cx="342900" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -920,7 +1274,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="da-DK" sz="1100" kern="1200"/>
-            <a:t>22</a:t>
+            <a:t>2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -929,23 +1283,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>550719</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>191365</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Ellipse 3">
+        <xdr:cNvPr id="21" name="Ellipse 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AD8682-4BD8-4388-93CD-BEE31A521CEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{625451D5-C50B-4DC7-835C-0CDCD26FA300}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,7 +1307,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22879050" y="4638675"/>
+          <a:off x="40437955" y="27622499"/>
           <a:ext cx="342900" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -993,22 +1347,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>306160</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1361</xdr:rowOff>
+      <xdr:colOff>258783</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>41069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>36739</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>115661</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>601683</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>145844</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Ellipse 4">
+        <xdr:cNvPr id="22" name="Ellipse 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E79EBFB-A6A6-4BD4-BE6F-7BC9D0B7A21D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DBC105-9BCF-42F8-BD0F-CCEF0494A43B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,322 +1370,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24309160" y="6301468"/>
-          <a:ext cx="342900" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
-            <a:t>4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Ellipse 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43177D4E-9910-4215-87B2-13AC4215FC24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20850225" y="4238625"/>
-          <a:ext cx="342900" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
-            <a:t>5</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>91168</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Ellipse 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CB1795-3682-4AB5-9466-CA3614E9DEB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15879536" y="7905750"/>
-          <a:ext cx="342900" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Ellipse 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5612BE4E-F4C4-4F23-9521-EB523F0C36C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15879536" y="8300357"/>
-          <a:ext cx="342900" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Ellipse 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B25E941-0A79-4F12-8B24-65224AF7C2C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15879536" y="8681357"/>
-          <a:ext cx="342900" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>16328</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>179614</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>359228</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>93889</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Ellipse 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{866777CA-4F4D-4CF9-BECC-8BCC603FE199}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15895864" y="9051471"/>
+          <a:off x="39276647" y="27576978"/>
           <a:ext cx="342900" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1370,23 +1409,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127907</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>240475</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>58635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>375557</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>42182</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>583375</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>163410</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Ellipse 11">
+        <xdr:cNvPr id="23" name="Ellipse 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D735E8EC-0832-4302-9A92-66C1B447C68B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8AB9D4-C320-4F47-BC79-CE0806086AEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1394,7 +1433,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15912193" y="9380764"/>
+          <a:off x="36833793" y="27594544"/>
           <a:ext cx="342900" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1753,231 +1792,260 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281A5AE5-13B0-427C-86AC-A024AFFB3606}">
   <dimension ref="B2:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="13" width="20.7265625" customWidth="1"/>
+    <col min="2" max="12" width="40.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:24">
       <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" ht="140.1" customHeight="1">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>45602</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2">
+        <v>45610</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9">
         <v>2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="9">
         <v>2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="9">
         <f>G3*H3</f>
         <v>4</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" ht="140.1" customHeight="1">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="6">
-        <v>45602</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5">
+        <v>45610</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="12">
         <v>3</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I7" si="0">G4*H4</f>
+      <c r="H4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-    </row>
-    <row r="5" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="13">
+        <f>G4*H4</f>
+        <v>9</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="12">
+        <v>6</v>
+      </c>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+    </row>
+    <row r="5" spans="2:24" ht="140.1" customHeight="1">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="4">
-        <v>45602</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>45610</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9">
+        <f>G5*H5</f>
+        <v>12</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="140.1" customHeight="1">
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="6">
-        <v>45602</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5">
+        <v>45610</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3</v>
+      </c>
+      <c r="H6" s="12">
         <v>4</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="12">
+        <f>G6*H6</f>
+        <v>12</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="140.1" customHeight="1">
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="4">
-        <v>45602</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2">
+        <v>45610</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9">
         <v>4</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="9">
         <v>2</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:24" ht="140.1" customHeight="1">
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="6">
+        <v>45610</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:24" ht="140.1" customHeight="1">
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4">
+        <v>45610</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1988,7 +2056,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:24" ht="140.1" customHeight="1">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -2003,7 +2071,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24" ht="140.1" customHeight="1">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -2018,7 +2086,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:24" ht="140.1" customHeight="1">
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -2033,7 +2101,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" ht="140.1" customHeight="1">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -2048,7 +2116,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:24" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:24" ht="140.1" customHeight="1">
       <c r="B14" s="5">
         <v>12</v>
       </c>
@@ -2063,550 +2131,550 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="17" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O18" s="13" t="s">
+    <row r="17" spans="15:27" ht="15.75" thickBot="1"/>
+    <row r="18" spans="15:27">
+      <c r="O18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="25"/>
+    </row>
+    <row r="19" spans="15:27">
+      <c r="O19" s="17"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="26">
+        <v>1</v>
+      </c>
+      <c r="S19" s="27"/>
+      <c r="T19" s="26">
+        <v>2</v>
+      </c>
+      <c r="U19" s="27"/>
+      <c r="V19" s="26">
+        <v>3</v>
+      </c>
+      <c r="W19" s="27"/>
+      <c r="X19" s="26">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="26">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="30"/>
+    </row>
+    <row r="20" spans="15:27">
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="31"/>
+    </row>
+    <row r="21" spans="15:27">
+      <c r="O21" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="35">
+        <v>5</v>
+      </c>
+      <c r="S21" s="36"/>
+      <c r="T21" s="39">
+        <v>10</v>
+      </c>
+      <c r="U21" s="40"/>
+      <c r="V21" s="43">
+        <v>15</v>
+      </c>
+      <c r="W21" s="44"/>
+      <c r="X21" s="43">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="43">
+        <v>25</v>
+      </c>
+      <c r="AA21" s="47"/>
+    </row>
+    <row r="22" spans="15:27">
+      <c r="O22" s="33"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="48"/>
+    </row>
+    <row r="23" spans="15:27">
+      <c r="O23" s="33"/>
+      <c r="P23" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="35">
+        <v>4</v>
+      </c>
+      <c r="S23" s="36"/>
+      <c r="T23" s="39">
+        <v>8</v>
+      </c>
+      <c r="U23" s="40"/>
+      <c r="V23" s="39">
         <v>12</v>
       </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="24"/>
-    </row>
-    <row r="19" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O19" s="16"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="25">
+      <c r="W23" s="40"/>
+      <c r="X23" s="43">
+        <v>16</v>
+      </c>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="43">
+        <v>20</v>
+      </c>
+      <c r="AA23" s="47"/>
+    </row>
+    <row r="24" spans="15:27">
+      <c r="O24" s="33"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="48"/>
+    </row>
+    <row r="25" spans="15:27">
+      <c r="O25" s="33"/>
+      <c r="P25" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="35">
+        <v>3</v>
+      </c>
+      <c r="S25" s="36"/>
+      <c r="T25" s="39">
+        <v>6</v>
+      </c>
+      <c r="U25" s="40"/>
+      <c r="V25" s="39">
+        <v>9</v>
+      </c>
+      <c r="W25" s="40"/>
+      <c r="X25" s="39">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="43">
+        <v>15</v>
+      </c>
+      <c r="AA25" s="47"/>
+    </row>
+    <row r="26" spans="15:27">
+      <c r="O26" s="33"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="48"/>
+    </row>
+    <row r="27" spans="15:27" ht="15" customHeight="1">
+      <c r="O27" s="33"/>
+      <c r="P27" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="35">
+        <v>2</v>
+      </c>
+      <c r="S27" s="36"/>
+      <c r="T27" s="35">
+        <v>4</v>
+      </c>
+      <c r="U27" s="36"/>
+      <c r="V27" s="39">
+        <v>6</v>
+      </c>
+      <c r="W27" s="40"/>
+      <c r="X27" s="39">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="39">
+        <v>10</v>
+      </c>
+      <c r="AA27" s="52"/>
+    </row>
+    <row r="28" spans="15:27">
+      <c r="O28" s="33"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="53"/>
+    </row>
+    <row r="29" spans="15:27">
+      <c r="O29" s="33"/>
+      <c r="P29" s="26">
         <v>1</v>
       </c>
-      <c r="S19" s="26"/>
-      <c r="T19" s="25">
+      <c r="Q29" s="27"/>
+      <c r="R29" s="35">
+        <v>1</v>
+      </c>
+      <c r="S29" s="36"/>
+      <c r="T29" s="35">
         <v>2</v>
       </c>
-      <c r="U19" s="26"/>
-      <c r="V19" s="25">
+      <c r="U29" s="36"/>
+      <c r="V29" s="35">
         <v>3</v>
       </c>
-      <c r="W19" s="26"/>
-      <c r="X19" s="25">
+      <c r="W29" s="36"/>
+      <c r="X29" s="35">
         <v>4</v>
       </c>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="25">
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="35">
         <v>5</v>
       </c>
-      <c r="AA19" s="29"/>
-    </row>
-    <row r="20" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="30"/>
-    </row>
-    <row r="21" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O21" s="31" t="s">
+      <c r="AA29" s="49"/>
+    </row>
+    <row r="30" spans="15:27" ht="15.75" thickBot="1">
+      <c r="O30" s="34"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="51"/>
+    </row>
+    <row r="31" spans="15:27" ht="15" customHeight="1"/>
+    <row r="34" spans="15:27" ht="15.75" thickBot="1"/>
+    <row r="35" spans="15:27">
+      <c r="O35" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="25">
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="25"/>
+    </row>
+    <row r="36" spans="15:27">
+      <c r="O36" s="59"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="61">
+        <v>1</v>
+      </c>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62">
+        <v>2</v>
+      </c>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62">
+        <v>3</v>
+      </c>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62">
+        <v>4</v>
+      </c>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62">
         <v>5</v>
       </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="34">
+      <c r="AA36" s="63"/>
+    </row>
+    <row r="37" spans="15:27">
+      <c r="O37" s="59"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+      <c r="Z37" s="62"/>
+      <c r="AA37" s="63"/>
+    </row>
+    <row r="38" spans="15:27">
+      <c r="O38" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="64">
         <v>5</v>
       </c>
-      <c r="S21" s="35"/>
-      <c r="T21" s="38">
+      <c r="Q38" s="64"/>
+      <c r="R38" s="65">
+        <v>5</v>
+      </c>
+      <c r="S38" s="65"/>
+      <c r="T38" s="66">
         <v>10</v>
       </c>
-      <c r="U21" s="39"/>
-      <c r="V21" s="42">
+      <c r="U38" s="66"/>
+      <c r="V38" s="67">
         <v>15</v>
       </c>
-      <c r="W21" s="43"/>
-      <c r="X21" s="42">
+      <c r="W38" s="67"/>
+      <c r="X38" s="67">
         <v>20</v>
       </c>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="42">
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67">
         <v>25</v>
       </c>
-      <c r="AA21" s="46"/>
-    </row>
-    <row r="22" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O22" s="32"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="47"/>
-    </row>
-    <row r="23" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O23" s="32"/>
-      <c r="P23" s="25">
+      <c r="AA38" s="68"/>
+    </row>
+    <row r="39" spans="15:27">
+      <c r="O39" s="33"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="68"/>
+    </row>
+    <row r="40" spans="15:27">
+      <c r="O40" s="33"/>
+      <c r="P40" s="62">
         <v>4</v>
       </c>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="34">
+      <c r="Q40" s="62"/>
+      <c r="R40" s="65">
         <v>4</v>
       </c>
-      <c r="S23" s="35"/>
-      <c r="T23" s="38">
+      <c r="S40" s="65"/>
+      <c r="T40" s="66">
         <v>8</v>
       </c>
-      <c r="U23" s="39"/>
-      <c r="V23" s="38">
+      <c r="U40" s="66"/>
+      <c r="V40" s="66">
         <v>12</v>
       </c>
-      <c r="W23" s="39"/>
-      <c r="X23" s="42">
+      <c r="W40" s="66"/>
+      <c r="X40" s="67">
         <v>16</v>
       </c>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="42">
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67">
         <v>20</v>
       </c>
-      <c r="AA23" s="46"/>
-    </row>
-    <row r="24" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O24" s="32"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="47"/>
-    </row>
-    <row r="25" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O25" s="32"/>
-      <c r="P25" s="25">
+      <c r="AA40" s="68"/>
+    </row>
+    <row r="41" spans="15:27" ht="15" customHeight="1">
+      <c r="O41" s="33"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="68"/>
+    </row>
+    <row r="42" spans="15:27">
+      <c r="O42" s="33"/>
+      <c r="P42" s="62">
         <v>3</v>
       </c>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="34">
+      <c r="Q42" s="62"/>
+      <c r="R42" s="65">
         <v>3</v>
       </c>
-      <c r="S25" s="35"/>
-      <c r="T25" s="38">
+      <c r="S42" s="65"/>
+      <c r="T42" s="66">
         <v>6</v>
       </c>
-      <c r="U25" s="39"/>
-      <c r="V25" s="38">
+      <c r="U42" s="66"/>
+      <c r="V42" s="66">
         <v>9</v>
       </c>
-      <c r="W25" s="39"/>
-      <c r="X25" s="38">
+      <c r="W42" s="66"/>
+      <c r="X42" s="66">
         <v>12</v>
       </c>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="42">
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="67">
         <v>15</v>
       </c>
-      <c r="AA25" s="46"/>
-    </row>
-    <row r="26" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O26" s="32"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="47"/>
-    </row>
-    <row r="27" spans="15:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O27" s="32"/>
-      <c r="P27" s="25">
+      <c r="AA42" s="68"/>
+    </row>
+    <row r="43" spans="15:27">
+      <c r="O43" s="33"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="67"/>
+      <c r="AA43" s="68"/>
+    </row>
+    <row r="44" spans="15:27">
+      <c r="O44" s="33"/>
+      <c r="P44" s="62">
         <v>2</v>
       </c>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="34">
+      <c r="Q44" s="62"/>
+      <c r="R44" s="65">
         <v>2</v>
       </c>
-      <c r="S27" s="35"/>
-      <c r="T27" s="34">
+      <c r="S44" s="65"/>
+      <c r="T44" s="65">
         <v>4</v>
       </c>
-      <c r="U27" s="35"/>
-      <c r="V27" s="38">
+      <c r="U44" s="65"/>
+      <c r="V44" s="66">
         <v>6</v>
       </c>
-      <c r="W27" s="39"/>
-      <c r="X27" s="38">
+      <c r="W44" s="66"/>
+      <c r="X44" s="66">
         <v>8</v>
       </c>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="38">
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66">
         <v>10</v>
       </c>
-      <c r="AA27" s="51"/>
-    </row>
-    <row r="28" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O28" s="32"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="52"/>
-    </row>
-    <row r="29" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O29" s="32"/>
-      <c r="P29" s="25">
+      <c r="AA44" s="72"/>
+    </row>
+    <row r="45" spans="15:27">
+      <c r="O45" s="33"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="72"/>
+    </row>
+    <row r="46" spans="15:27">
+      <c r="O46" s="33"/>
+      <c r="P46" s="62">
         <v>1</v>
       </c>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="34">
+      <c r="Q46" s="62"/>
+      <c r="R46" s="65">
         <v>1</v>
       </c>
-      <c r="S29" s="35"/>
-      <c r="T29" s="34">
+      <c r="S46" s="65"/>
+      <c r="T46" s="65">
         <v>2</v>
       </c>
-      <c r="U29" s="35"/>
-      <c r="V29" s="34">
+      <c r="U46" s="65"/>
+      <c r="V46" s="65">
         <v>3</v>
       </c>
-      <c r="W29" s="35"/>
-      <c r="X29" s="34">
+      <c r="W46" s="65"/>
+      <c r="X46" s="65">
         <v>4</v>
       </c>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="34">
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="65">
         <v>5</v>
       </c>
-      <c r="AA29" s="48"/>
-    </row>
-    <row r="30" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O30" s="33"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="49"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="49"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="50"/>
-    </row>
-    <row r="31" spans="15:27" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O35" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="24"/>
-    </row>
-    <row r="36" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O36" s="58"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="60">
-        <v>1</v>
-      </c>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61">
-        <v>2</v>
-      </c>
-      <c r="U36" s="61"/>
-      <c r="V36" s="61">
-        <v>3</v>
-      </c>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61">
-        <v>4</v>
-      </c>
-      <c r="Y36" s="61"/>
-      <c r="Z36" s="61">
-        <v>5</v>
-      </c>
-      <c r="AA36" s="62"/>
-    </row>
-    <row r="37" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O37" s="58"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="61"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="61"/>
-      <c r="W37" s="61"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="61"/>
-      <c r="Z37" s="61"/>
-      <c r="AA37" s="62"/>
-    </row>
-    <row r="38" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O38" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="P38" s="63">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="64">
-        <v>5</v>
-      </c>
-      <c r="S38" s="64"/>
-      <c r="T38" s="65">
-        <v>10</v>
-      </c>
-      <c r="U38" s="65"/>
-      <c r="V38" s="66">
-        <v>15</v>
-      </c>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66">
-        <v>20</v>
-      </c>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66">
-        <v>25</v>
-      </c>
-      <c r="AA38" s="67"/>
-    </row>
-    <row r="39" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O39" s="32"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="65"/>
-      <c r="U39" s="65"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="67"/>
-    </row>
-    <row r="40" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O40" s="32"/>
-      <c r="P40" s="61">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="64">
-        <v>4</v>
-      </c>
-      <c r="S40" s="64"/>
-      <c r="T40" s="65">
-        <v>8</v>
-      </c>
-      <c r="U40" s="65"/>
-      <c r="V40" s="65">
-        <v>12</v>
-      </c>
-      <c r="W40" s="65"/>
-      <c r="X40" s="66">
-        <v>16</v>
-      </c>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66">
-        <v>20</v>
-      </c>
-      <c r="AA40" s="67"/>
-    </row>
-    <row r="41" spans="15:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="O41" s="32"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="65"/>
-      <c r="U41" s="65"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="66"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="67"/>
-    </row>
-    <row r="42" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O42" s="32"/>
-      <c r="P42" s="61">
-        <v>3</v>
-      </c>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="64">
-        <v>3</v>
-      </c>
-      <c r="S42" s="64"/>
-      <c r="T42" s="65">
-        <v>6</v>
-      </c>
-      <c r="U42" s="65"/>
-      <c r="V42" s="65">
-        <v>9</v>
-      </c>
-      <c r="W42" s="65"/>
-      <c r="X42" s="65">
-        <v>12</v>
-      </c>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="66">
-        <v>15</v>
-      </c>
-      <c r="AA42" s="67"/>
-    </row>
-    <row r="43" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O43" s="32"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="65"/>
-      <c r="U43" s="65"/>
-      <c r="V43" s="65"/>
-      <c r="W43" s="65"/>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="66"/>
-      <c r="AA43" s="67"/>
-    </row>
-    <row r="44" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O44" s="32"/>
-      <c r="P44" s="61">
-        <v>2</v>
-      </c>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="64">
-        <v>2</v>
-      </c>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64">
-        <v>4</v>
-      </c>
-      <c r="U44" s="64"/>
-      <c r="V44" s="65">
-        <v>6</v>
-      </c>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65">
-        <v>8</v>
-      </c>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="65">
-        <v>10</v>
-      </c>
-      <c r="AA44" s="71"/>
-    </row>
-    <row r="45" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O45" s="32"/>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="64"/>
-      <c r="S45" s="64"/>
-      <c r="T45" s="64"/>
-      <c r="U45" s="64"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="71"/>
-    </row>
-    <row r="46" spans="15:27" x14ac:dyDescent="0.35">
-      <c r="O46" s="32"/>
-      <c r="P46" s="61">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="64">
-        <v>1</v>
-      </c>
-      <c r="S46" s="64"/>
-      <c r="T46" s="64">
-        <v>2</v>
-      </c>
-      <c r="U46" s="64"/>
-      <c r="V46" s="64">
-        <v>3</v>
-      </c>
-      <c r="W46" s="64"/>
-      <c r="X46" s="64">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="64"/>
-      <c r="Z46" s="64">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="68"/>
-    </row>
-    <row r="47" spans="15:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O47" s="33"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="69"/>
-      <c r="S47" s="69"/>
-      <c r="T47" s="69"/>
-      <c r="U47" s="69"/>
-      <c r="V47" s="69"/>
-      <c r="W47" s="69"/>
-      <c r="X47" s="69"/>
-      <c r="Y47" s="69"/>
-      <c r="Z47" s="69"/>
-      <c r="AA47" s="70"/>
+      <c r="AA46" s="69"/>
+    </row>
+    <row r="47" spans="15:27" ht="15.75" thickBot="1">
+      <c r="O47" s="34"/>
+      <c r="P47" s="73"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="70"/>
+      <c r="S47" s="70"/>
+      <c r="T47" s="70"/>
+      <c r="U47" s="70"/>
+      <c r="V47" s="70"/>
+      <c r="W47" s="70"/>
+      <c r="X47" s="70"/>
+      <c r="Y47" s="70"/>
+      <c r="Z47" s="70"/>
+      <c r="AA47" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="77">
